--- a/pred_ohlcv/54_21/2020-01-15 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 VET ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3799928.4768</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3759928.4768</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3932825.6812</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>151243469.2983245</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>151233353.5170245</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>151373045.0419245</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>151371829.2292245</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>152692457.7704245</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>152815016.1536866</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>152800155.1892866</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>152804623.9000866</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>152789398.1592866</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>152614024.8361866</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>153039163.2184866</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>153061913.2184866</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>153128915.3903866</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>153137614.3130866</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>153393002.3715866</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>153426837.0617866</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>153790311.5370866</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>153826528.4282866</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>153881592.1325866</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>153899495.9406866</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 VET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 VET ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>710003.3350000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>4079838.333</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>4079838.333</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>4079838.333</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3807036.7369</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3839769.9611</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3799769.9611</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3799928.4768</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3759928.4768</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>3932825.6812</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>151243469.2983245</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>151233353.5170245</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>151373045.0419245</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>151371829.2292245</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>152692457.7704245</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>152815016.1536866</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>152800155.1892866</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>152804623.9000866</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>152789398.1592866</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>152766559.5479866</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>152614024.8361866</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>153060267.3555866</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>153039163.2184866</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>153061913.2184866</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>153128915.3903866</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>153137614.3130866</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>153393002.3715866</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>153426837.0617866</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>153691311.5370866</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>153826528.4282866</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>154154729.5780866</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>153881592.1325866</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>153899495.9406866</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>152636022.8904866</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
